--- a/info.xlsx
+++ b/info.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>email</t>
   </si>
@@ -439,7 +439,7 @@
     <col min="2" max="2" customWidth="true" width="20.5" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="15.6640625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="16.83203125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.553292410714286" collapsed="false"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.553292410714286" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -539,7 +539,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/info.xlsx
+++ b/info.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mustafizurrahman/Documents/workspace/Selenium_Software_Testing_4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mustafizurrahman/Documents/workspace/Final-Project-Of-MR/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -430,7 +430,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
